--- a/results/I3_N5_M3_T15_C100_DepCentral_s0_P6_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1852.146307710459</v>
+        <v>336.5435359928049</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.85630771045523</v>
+        <v>24.54353599280496</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.691939688157994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.691939688157994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1485.470000000004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.8200000000001</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,105 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -989,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.289999994750023</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -997,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>5.304320013412203</v>
       </c>
     </row>
     <row r="7">
@@ -1005,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.224115997544416</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.42095022666721</v>
+        <v>13.56876729417876</v>
       </c>
     </row>
     <row r="9">
@@ -1029,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.56876729417876</v>
+        <v>12.12249852767911</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,132 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>125.5050000000004</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1309,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>131.3400000000004</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -1320,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.4650000000004</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1331,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>137.05</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -1353,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>204.4300000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -1364,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>209.8400000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>213.8850000000002</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>211.2050000000002</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -1397,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>220.3700000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999935</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1419,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77499999999934</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999935</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1452,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.73999999999934</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1463,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1474,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1485,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1496,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1507,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1518,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1529,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1540,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -1551,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1573,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>108.515</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -1584,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>96.92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1595,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>106.645</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>103.745</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -1617,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>100.49</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -1628,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>204.4300000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>209.8400000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -1650,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>213.8850000000002</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -1661,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>211.2050000000002</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>220.3700000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
@@ -1683,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>125.5050000000004</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -1694,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>131.3400000000004</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1705,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>134.4650000000004</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
@@ -1716,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>137.05</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -1727,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>135.25</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.515000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1785,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1796,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.645000000000003</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1807,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3.744999999999997</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1818,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.490000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1829,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>104.4300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1840,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>109.8400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1851,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>113.8850000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1862,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.2050000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1873,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>120.3700000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1884,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>25.50500000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1895,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>31.34000000000043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1906,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>34.46500000000043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1917,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>37.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1928,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>35.25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1986,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1997,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2008,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2019,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2085,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2096,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2107,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2118,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2129,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2151,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2162,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -2173,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2184,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2195,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2206,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2217,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2228,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2239,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2283,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2294,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2305,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2316,119 +2091,9 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
